--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="100" windowWidth="19380" windowHeight="12180" tabRatio="632"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19540" windowHeight="12180" tabRatio="632" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="11-12 BAL" sheetId="1" r:id="rId1"/>
-    <sheet name="W2 1st" sheetId="2" r:id="rId2"/>
-    <sheet name="Preempt length" sheetId="5" r:id="rId3"/>
-    <sheet name="BAL 1st" sheetId="6" r:id="rId4"/>
-    <sheet name="Hands" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
+    <sheet name="Hands" sheetId="7" r:id="rId1"/>
+    <sheet name="BAL 1st" sheetId="6" r:id="rId2"/>
+    <sheet name="11-12 BAL" sheetId="1" r:id="rId3"/>
+    <sheet name="W2 1st" sheetId="2" r:id="rId4"/>
+    <sheet name="Preempt" sheetId="5" r:id="rId5"/>
+    <sheet name="Contested" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Total</t>
   </si>
@@ -64,12 +64,66 @@
   <si>
     <t>Decade/Year</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Valid Percent</t>
+  </si>
+  <si>
+    <t>Cumulative Percent</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Year * opening_11_12_bal_2 Crosstabulation</t>
+  </si>
+  <si>
+    <t>opening_11_12_bal_2</t>
+  </si>
+  <si>
+    <t>Year * weak_two_1st Crosstabulation</t>
+  </si>
+  <si>
+    <t>weak_two_1st</t>
+  </si>
+  <si>
+    <t>Year * preempt Crosstabulation</t>
+  </si>
+  <si>
+    <t>preempt</t>
+  </si>
+  <si>
+    <t>Preempt %</t>
+  </si>
+  <si>
+    <t>No preempt</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>For copying into Latex: values</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +155,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +180,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,15 +276,73 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -271,6 +390,32 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +463,32 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -600,11 +771,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2108270568"/>
-        <c:axId val="-2108276040"/>
+        <c:axId val="-2082968344"/>
+        <c:axId val="-2082961736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2108270568"/>
+        <c:axId val="-2082968344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108276040"/>
+        <c:crossAx val="-2082961736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108276040"/>
+        <c:axId val="-2082961736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108270568"/>
+        <c:crossAx val="-2082968344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1055,570 +1226,659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="4" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f>C13</f>
+        <v>448</v>
+      </c>
+      <c r="I2">
+        <f>C14</f>
+        <v>447</v>
+      </c>
+      <c r="K2">
+        <f>C15</f>
+        <v>312</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B2:K2)</f>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f>C16</f>
+        <v>576</v>
+      </c>
+      <c r="I3">
+        <f>C17</f>
+        <v>256</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="0">SUM(B3:K3)</f>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>C18</f>
+        <v>256</v>
+      </c>
+      <c r="F4">
+        <f>C19</f>
+        <v>192</v>
+      </c>
+      <c r="G4">
+        <f>C20</f>
+        <v>191</v>
+      </c>
+      <c r="I4">
+        <f>C21</f>
+        <v>192</v>
+      </c>
+      <c r="K4">
+        <f>C22</f>
+        <v>192</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>C23</f>
+        <v>192</v>
+      </c>
+      <c r="E5">
+        <f>C24</f>
+        <v>352</v>
+      </c>
+      <c r="I5">
+        <f>C25</f>
+        <v>350</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f>C26</f>
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <f>C27</f>
+        <v>313</v>
+      </c>
+      <c r="I6">
+        <f>C28</f>
+        <v>1209</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>C29</f>
+        <v>702</v>
+      </c>
+      <c r="C7">
+        <f>C30</f>
+        <v>297</v>
+      </c>
+      <c r="E7">
+        <f>C31</f>
+        <v>1470</v>
+      </c>
+      <c r="G7">
+        <f>C32</f>
+        <v>1968</v>
+      </c>
+      <c r="I7">
+        <f>C33</f>
+        <v>1526</v>
+      </c>
+      <c r="K7">
+        <f>C34</f>
+        <v>3109</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>C35</f>
+        <v>3293</v>
+      </c>
+      <c r="E8">
+        <f>C36</f>
+        <v>1245</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="L9">
+        <f>SUM(L2:L8)</f>
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>1955</v>
       </c>
-      <c r="B2">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C13">
+        <v>448</v>
+      </c>
+      <c r="D13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F13">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
         <v>1957</v>
       </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D34" si="0">SUM(B3:C3)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C14">
+        <v>447</v>
+      </c>
+      <c r="D14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F14">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
         <v>1959</v>
       </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="C15">
+        <v>312</v>
+      </c>
+      <c r="D15">
+        <v>1.6</v>
+      </c>
+      <c r="E15">
+        <v>1.6</v>
+      </c>
+      <c r="F15">
+        <v>6.3</v>
+      </c>
+      <c r="G15" s="6">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16">
         <v>1962</v>
       </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="C16">
+        <v>576</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
         <v>1967</v>
       </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>1.3</v>
+      </c>
+      <c r="E17">
+        <v>1.3</v>
+      </c>
+      <c r="F17">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
         <v>1973</v>
       </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18">
+        <v>1.3</v>
+      </c>
+      <c r="E18">
+        <v>1.3</v>
+      </c>
+      <c r="F18">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
         <v>1974</v>
       </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="C19">
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
         <v>1975</v>
       </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="C20">
+        <v>191</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
         <v>1977</v>
       </c>
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="C21">
+        <v>192</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
         <v>1979</v>
       </c>
-      <c r="B11">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="C22">
+        <v>192</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
         <v>1981</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="C23">
+        <v>192</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
         <v>1983</v>
       </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="C24">
+        <v>352</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>1.8</v>
+      </c>
+      <c r="F24">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
         <v>1987</v>
       </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="C25">
+        <v>350</v>
+      </c>
+      <c r="D25">
+        <v>1.8</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+      <c r="F25">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
         <v>1991</v>
       </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="C26">
+        <v>135</v>
+      </c>
+      <c r="D26">
+        <v>0.7</v>
+      </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
+      <c r="F26">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
         <v>1995</v>
       </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
+      <c r="C27">
+        <v>313</v>
+      </c>
+      <c r="D27">
+        <v>1.6</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28">
         <v>1997</v>
       </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>95</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+      <c r="C28">
+        <v>1209</v>
+      </c>
+      <c r="D28">
+        <v>6.3</v>
+      </c>
+      <c r="E28">
+        <v>6.3</v>
+      </c>
+      <c r="F28">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
         <v>2000</v>
       </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>63</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+      <c r="C29">
+        <v>702</v>
+      </c>
+      <c r="D29">
+        <v>3.7</v>
+      </c>
+      <c r="E29">
+        <v>3.7</v>
+      </c>
+      <c r="F29">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30">
         <v>2001</v>
       </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
+      <c r="C30">
+        <v>297</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31">
         <v>2003</v>
       </c>
-      <c r="B20">
-        <v>73</v>
-      </c>
-      <c r="C20">
-        <v>128</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+      <c r="C31">
+        <v>1470</v>
+      </c>
+      <c r="D31">
+        <v>7.6</v>
+      </c>
+      <c r="E31">
+        <v>7.6</v>
+      </c>
+      <c r="F31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32">
         <v>2005</v>
       </c>
-      <c r="B21">
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <v>182</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+      <c r="C32">
+        <v>1968</v>
+      </c>
+      <c r="D32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F32">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
         <v>2007</v>
       </c>
-      <c r="B22">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>128</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
+      <c r="C33">
+        <v>1526</v>
+      </c>
+      <c r="D33">
+        <v>7.9</v>
+      </c>
+      <c r="E33">
+        <v>7.9</v>
+      </c>
+      <c r="F33">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34">
         <v>2009</v>
       </c>
-      <c r="B23">
-        <v>123</v>
-      </c>
-      <c r="C23">
-        <v>283</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
+      <c r="C34">
+        <v>3109</v>
+      </c>
+      <c r="D34">
+        <v>16.2</v>
+      </c>
+      <c r="E34">
+        <v>16.2</v>
+      </c>
+      <c r="F34">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35">
         <v>2011</v>
       </c>
-      <c r="B24">
-        <v>152</v>
-      </c>
-      <c r="C24">
-        <v>246</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
+      <c r="C35">
+        <v>3293</v>
+      </c>
+      <c r="D35">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E35">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F35">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36">
         <v>2013</v>
       </c>
-      <c r="B25">
-        <v>38</v>
-      </c>
-      <c r="C25">
-        <v>108</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26">
-        <v>892</v>
-      </c>
-      <c r="C26">
-        <v>1541</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B2:B4)</f>
-        <v>105</v>
-      </c>
-      <c r="C28">
-        <f>SUM(C2:C4)</f>
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="E28" s="1">
-        <f>C28/D28</f>
-        <v>0.38596491228070173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B5:B6)</f>
-        <v>44</v>
-      </c>
-      <c r="C29">
-        <f>SUM(C5:C6)</f>
-        <v>44</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" ref="E29:E35" si="1">C29/D29</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <f>SUM(B7:B11)</f>
-        <v>74</v>
-      </c>
-      <c r="C30">
-        <f>SUM(C7:C11)</f>
-        <v>80</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>0.51948051948051943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <f>SUM(B12:B14)</f>
-        <v>47</v>
-      </c>
-      <c r="C31">
-        <f>SUM(C12:C14)</f>
-        <v>61</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>0.56481481481481477</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <f>SUM(B15:B17)</f>
-        <v>63</v>
-      </c>
-      <c r="C32">
-        <f>SUM(C15:C17)</f>
-        <v>133</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
-        <f>SUM(B18:B23)</f>
-        <v>363</v>
-      </c>
-      <c r="C33">
-        <f>SUM(C18:C23)</f>
-        <v>803</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1166</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.68867924528301883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <f>SUM(B24:B25)</f>
-        <v>190</v>
-      </c>
-      <c r="C34">
-        <f>SUM(C24:C25)</f>
-        <v>354</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>544</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>0.65073529411764708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35">
-        <f>SUM(B28:B34)</f>
-        <v>886</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:D35" si="2">SUM(C28:C34)</f>
-        <v>1541</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>2427</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.6349402554594149</v>
+      <c r="C36">
+        <v>1245</v>
+      </c>
+      <c r="D36">
+        <v>6.5</v>
+      </c>
+      <c r="E36">
+        <v>6.5</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>19223</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1634,13 +1894,1516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1955</v>
+      </c>
+      <c r="B2">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>228</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1957</v>
+      </c>
+      <c r="B3">
+        <v>238</v>
+      </c>
+      <c r="C3">
+        <v>209</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D35" si="0">SUM(B3:C3)</f>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1959</v>
+      </c>
+      <c r="B4">
+        <v>142</v>
+      </c>
+      <c r="C4">
+        <v>170</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1962</v>
+      </c>
+      <c r="B5">
+        <v>412</v>
+      </c>
+      <c r="C5">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1973</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1974</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1975</v>
+      </c>
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1977</v>
+      </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1979</v>
+      </c>
+      <c r="B11">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1981</v>
+      </c>
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1983</v>
+      </c>
+      <c r="B13">
+        <v>188</v>
+      </c>
+      <c r="C13">
+        <v>164</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1987</v>
+      </c>
+      <c r="B14">
+        <v>218</v>
+      </c>
+      <c r="C14">
+        <v>132</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1991</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1995</v>
+      </c>
+      <c r="B16">
+        <v>162</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1997</v>
+      </c>
+      <c r="B17">
+        <v>659</v>
+      </c>
+      <c r="C17">
+        <v>550</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>348</v>
+      </c>
+      <c r="C18">
+        <v>354</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+      <c r="B19">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>151</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2003</v>
+      </c>
+      <c r="B20">
+        <v>743</v>
+      </c>
+      <c r="C20">
+        <v>727</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2005</v>
+      </c>
+      <c r="B21">
+        <v>1030</v>
+      </c>
+      <c r="C21">
+        <v>938</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+      <c r="B22">
+        <v>837</v>
+      </c>
+      <c r="C22">
+        <v>689</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2009</v>
+      </c>
+      <c r="B23">
+        <v>1550</v>
+      </c>
+      <c r="C23">
+        <v>1559</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2011</v>
+      </c>
+      <c r="B24">
+        <v>1835</v>
+      </c>
+      <c r="C24">
+        <v>1458</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>625</v>
+      </c>
+      <c r="C25">
+        <v>620</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26">
+        <f>SUM(B1:B25)</f>
+        <v>10133</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:D26" si="1">SUM(C1:C25)</f>
+        <v>9091</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B2:B4)</f>
+        <v>600</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C2:C4)</f>
+        <v>607</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1207</v>
+      </c>
+      <c r="E28" s="1">
+        <f>C28/D28</f>
+        <v>0.50289975144987575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B5:B6)</f>
+        <v>542</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C5:C6)</f>
+        <v>290</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ref="E29:E34" si="2">C29/D29</f>
+        <v>0.34855769230769229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B7:B11)</f>
+        <v>492</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C7:C11)</f>
+        <v>531</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51906158357771259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B12:B14)</f>
+        <v>502</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C12:C14)</f>
+        <v>392</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>894</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43847874720357943</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B15:B17)</f>
+        <v>883</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C15:C17)</f>
+        <v>774</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1657</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46710923355461675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B18:B23)</f>
+        <v>4654</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C18:C23)</f>
+        <v>4418</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>9072</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48699294532627868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B24:B25)</f>
+        <v>2460</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C24:C25)</f>
+        <v>2078</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>4538</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.45791097399735564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B28:B34)</f>
+        <v>10133</v>
+      </c>
+      <c r="C35">
+        <f>SUM(C28:C34)</f>
+        <v>9090</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37">
+        <f>SUM(C28:C30)</f>
+        <v>1428</v>
+      </c>
+      <c r="D37">
+        <f>SUM(D28:D30)</f>
+        <v>3062</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E38" si="3">C37/D37</f>
+        <v>0.46636185499673416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38">
+        <f>SUM(C31:C34)</f>
+        <v>7662</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D34)</f>
+        <v>16161</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47410432522739931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28:B34"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D34" si="0">SUM(B3:C3)</f>
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>1959</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1955</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>1957</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>1959</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1962</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>1967</v>
+      </c>
+      <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>1973</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>1974</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>1975</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>1977</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>1979</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>1981</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="G17">
+        <v>1983</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G18">
+        <v>1987</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>1991</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G20">
+        <v>1995</v>
+      </c>
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B21">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>182</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="G21">
+        <v>1997</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>95</v>
+      </c>
+      <c r="J21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>63</v>
+      </c>
+      <c r="J22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>283</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="G23">
+        <v>2001</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B24">
+        <v>126</v>
+      </c>
+      <c r="C24">
+        <v>246</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="G24">
+        <v>2003</v>
+      </c>
+      <c r="H24">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="G25">
+        <v>2005</v>
+      </c>
+      <c r="H25">
+        <v>81</v>
+      </c>
+      <c r="I25">
+        <v>182</v>
+      </c>
+      <c r="J25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26">
+        <f>SUM(B2:B25)</f>
+        <v>834</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:D26" si="1">SUM(C2:C25)</f>
+        <v>1541</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2375</v>
+      </c>
+      <c r="G26">
+        <v>2007</v>
+      </c>
+      <c r="H26">
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <v>128</v>
+      </c>
+      <c r="J26">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="G27">
+        <v>2009</v>
+      </c>
+      <c r="H27">
+        <v>123</v>
+      </c>
+      <c r="I27">
+        <v>283</v>
+      </c>
+      <c r="J27">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B2:B4)</f>
+        <v>105</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C2:C4)</f>
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="E28" s="1">
+        <f>C28/D28</f>
+        <v>0.38596491228070173</v>
+      </c>
+      <c r="G28">
+        <v>2011</v>
+      </c>
+      <c r="H28">
+        <v>126</v>
+      </c>
+      <c r="I28">
+        <v>246</v>
+      </c>
+      <c r="J28">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B5:B6)</f>
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C5:C6)</f>
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ref="E29:E35" si="2">C29/D29</f>
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2013</v>
+      </c>
+      <c r="H29">
+        <v>38</v>
+      </c>
+      <c r="I29">
+        <v>108</v>
+      </c>
+      <c r="J29">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B7:B11)</f>
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C7:C11)</f>
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51948051948051943</v>
+      </c>
+      <c r="H30">
+        <v>834</v>
+      </c>
+      <c r="I30">
+        <v>1541</v>
+      </c>
+      <c r="J30">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B12:B14)</f>
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C12:C14)</f>
+        <v>61</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56481481481481477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B15:B17)</f>
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C15:C17)</f>
+        <v>133</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68911917098445596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B18:B23)</f>
+        <v>340</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C18:C23)</f>
+        <v>803</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1143</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7025371828521435</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B24:B25)</f>
+        <v>164</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C24:C25)</f>
+        <v>354</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>518</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68339768339768336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35">
+        <f>SUM(B28:B34)</f>
+        <v>834</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:D35" si="3">SUM(C28:C34)</f>
+        <v>1541</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>2375</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V44"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1659,7 +3422,7 @@
     <col min="14" max="14" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:22" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +3461,7 @@
       </c>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>1955</v>
       </c>
@@ -1724,8 +3487,11 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>1957</v>
       </c>
@@ -1751,8 +3517,11 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>1959</v>
       </c>
@@ -1778,8 +3547,14 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>1962</v>
       </c>
@@ -1805,8 +3580,23 @@
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>1967</v>
       </c>
@@ -1832,8 +3622,32 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1955</v>
+      </c>
+      <c r="Q6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>1973</v>
       </c>
@@ -1859,8 +3673,29 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <v>1957</v>
+      </c>
+      <c r="Q7">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>1974</v>
       </c>
@@ -1886,8 +3721,29 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <v>1959</v>
+      </c>
+      <c r="Q8">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>1975</v>
       </c>
@@ -1913,8 +3769,29 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <v>1962</v>
+      </c>
+      <c r="Q9">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>1977</v>
       </c>
@@ -1940,8 +3817,29 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <v>1967</v>
+      </c>
+      <c r="Q10">
+        <v>23</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>1979</v>
       </c>
@@ -1967,8 +3865,29 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <v>1973</v>
+      </c>
+      <c r="Q11">
+        <v>14</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>1981</v>
       </c>
@@ -1994,8 +3913,29 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <v>1974</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>1983</v>
       </c>
@@ -2021,8 +3961,29 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <v>1975</v>
+      </c>
+      <c r="Q13">
+        <v>16</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>1987</v>
       </c>
@@ -2048,13 +4009,34 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <v>1977</v>
+      </c>
+      <c r="Q14">
+        <v>20</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2075,8 +4057,29 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <v>1979</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>1995</v>
       </c>
@@ -2102,8 +4105,29 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <v>1981</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>1997</v>
       </c>
@@ -2129,8 +4153,29 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <v>1983</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>2000</v>
       </c>
@@ -2156,13 +4201,34 @@
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <v>1987</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>2001</v>
       </c>
       <c r="B19">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2183,8 +4249,29 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <v>1991</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -2210,13 +4297,34 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <v>1995</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2237,8 +4345,29 @@
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <v>1997</v>
+      </c>
+      <c r="Q21">
+        <v>53</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>2007</v>
       </c>
@@ -2264,8 +4393,29 @@
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <v>2000</v>
+      </c>
+      <c r="Q22">
+        <v>22</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>2009</v>
       </c>
@@ -2291,13 +4441,34 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <v>2001</v>
+      </c>
+      <c r="Q23">
+        <v>34</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>2011</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -2318,8 +4489,29 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <v>2003</v>
+      </c>
+      <c r="Q24">
+        <v>85</v>
+      </c>
+      <c r="R24">
+        <v>6</v>
+      </c>
+      <c r="S24">
+        <v>25</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>2013</v>
       </c>
@@ -2345,14 +4537,79 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <v>2005</v>
+      </c>
+      <c r="Q25">
+        <v>105</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>44</v>
+      </c>
+      <c r="T25">
+        <v>10</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P26">
+        <v>2007</v>
+      </c>
+      <c r="Q26">
+        <v>70</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>39</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="P27">
+        <v>2009</v>
+      </c>
+      <c r="Q27">
+        <v>136</v>
+      </c>
+      <c r="R27">
+        <v>21</v>
+      </c>
+      <c r="S27">
+        <v>62</v>
+      </c>
+      <c r="T27">
+        <v>14</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2385,27 +4642,48 @@
         <v>0.85576923076923073</v>
       </c>
       <c r="I28" s="1">
-        <f>C28/G28</f>
+        <f t="shared" ref="I28:I34" si="1">C28/G28</f>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="J28" s="1">
-        <f>D28/G28</f>
+        <f t="shared" ref="J28:J34" si="2">D28/G28</f>
         <v>9.6153846153846159E-2</v>
       </c>
       <c r="K28" s="1">
-        <f>E28/G28</f>
+        <f t="shared" ref="K28:K34" si="3">E28/G28</f>
         <v>2.8846153846153848E-2</v>
       </c>
       <c r="L28" s="1">
-        <f>F28/G28</f>
+        <f t="shared" ref="L28:L34" si="4">F28/G28</f>
         <v>0</v>
       </c>
       <c r="M28" s="1">
         <f>SUM(H28:L28)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <v>2011</v>
+      </c>
+      <c r="Q28">
+        <v>126</v>
+      </c>
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>66</v>
+      </c>
+      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2414,51 +4692,72 @@
         <v>57</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:F29" si="1">SUM(C5:C6)</f>
+        <f t="shared" ref="C29:F29" si="5">SUM(C5:C6)</f>
         <v>2</v>
       </c>
       <c r="D29">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G34" si="6">SUM(B29:F29)</f>
+        <v>68</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:H34" si="7">B29/G29</f>
+        <v>0.83823529411764708</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="1"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" ref="M29:M34" si="8">SUM(H29:L29)</f>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>2013</v>
+      </c>
+      <c r="Q29">
+        <v>68</v>
+      </c>
+      <c r="R29">
         <v>5</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ref="G29:G34" si="2">SUM(B29:F29)</f>
-        <v>68</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ref="H29:H34" si="3">B29/G29</f>
-        <v>0.83823529411764708</v>
-      </c>
-      <c r="I29" s="1">
-        <f>C29/G29</f>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="J29" s="1">
-        <f>D29/G29</f>
-        <v>7.3529411764705885E-2</v>
-      </c>
-      <c r="K29" s="1">
-        <f>E29/G29</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="L29" s="1">
-        <f>F29/G29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" ref="M29:M34" si="4">SUM(H29:L29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="S29">
+        <v>21</v>
+      </c>
+      <c r="T29">
+        <v>14</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2467,51 +4766,72 @@
         <v>69</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:F30" si="5">SUM(C7:C11)</f>
+        <f t="shared" ref="C30:F30" si="9">SUM(C7:C11)</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G30">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="H30" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="I30" s="1">
-        <f>C30/G30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <f>D30/G30</f>
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="1">
-        <f>E30/G30</f>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="L30" s="1">
-        <f>F30/G30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>969</v>
+      </c>
+      <c r="R30">
+        <v>63</v>
+      </c>
+      <c r="S30">
+        <v>333</v>
+      </c>
+      <c r="T30">
+        <v>99</v>
+      </c>
+      <c r="U30">
+        <v>8</v>
+      </c>
+      <c r="V30">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -2520,101 +4840,101 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:F31" si="6">SUM(C12:C14)</f>
+        <f t="shared" ref="C31:F31" si="10">SUM(C12:C14)</f>
         <v>6</v>
       </c>
       <c r="D31">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
+        <v>50</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H31" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>0.64</v>
-      </c>
-      <c r="I31" s="1">
-        <f>C31/G31</f>
-        <v>0.12</v>
-      </c>
-      <c r="J31" s="1">
-        <f>D31/G31</f>
-        <v>0.16</v>
-      </c>
-      <c r="K31" s="1">
-        <f>E31/G31</f>
         <v>0.08</v>
       </c>
       <c r="L31" s="1">
-        <f>F31/G31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32">
         <f>SUM(B15:B17)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:F32" si="7">SUM(C15:C17)</f>
+        <f t="shared" ref="C32:F32" si="11">SUM(C15:C17)</f>
         <v>4</v>
       </c>
       <c r="D32">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
+        <v>0.69090909090909092</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="H32" s="1">
+        <v>0.17272727272727273</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>0.6964285714285714</v>
-      </c>
-      <c r="I32" s="1">
-        <f>C32/G32</f>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="J32" s="1">
-        <f>D32/G32</f>
-        <v>0.16964285714285715</v>
-      </c>
-      <c r="K32" s="1">
-        <f>E32/G32</f>
-        <v>9.8214285714285712E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L32" s="1">
-        <f>F32/G32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="4"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2623,51 +4943,51 @@
       </c>
       <c r="B33">
         <f>SUM(B18:B23)</f>
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:F33" si="8">SUM(C18:C23)</f>
+        <f t="shared" ref="C33:F33" si="12">SUM(C18:C23)</f>
         <v>35</v>
       </c>
       <c r="D33">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>724</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="7"/>
+        <v>0.62430939226519333</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.834254143646409E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27071823204419887</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1104972375690609E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5248618784530384E-3</v>
+      </c>
+      <c r="M33" s="1">
         <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>733</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="3"/>
-        <v>0.62892223738062758</v>
-      </c>
-      <c r="I33" s="1">
-        <f>C33/G33</f>
-        <v>4.7748976807639835E-2</v>
-      </c>
-      <c r="J33" s="1">
-        <f>D33/G33</f>
-        <v>0.26739427012278311</v>
-      </c>
-      <c r="K33" s="1">
-        <f>E33/G33</f>
-        <v>5.0477489768076401E-2</v>
-      </c>
-      <c r="L33" s="1">
-        <f>F33/G33</f>
-        <v>5.4570259208731242E-3</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2676,77 +4996,77 @@
       </c>
       <c r="B34">
         <f>SUM(B24:B25)</f>
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:F34" si="9">SUM(C24:C25)</f>
+        <f t="shared" ref="C34:F34" si="13">SUM(C24:C25)</f>
         <v>14</v>
       </c>
       <c r="D34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>87</v>
       </c>
       <c r="E34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G34">
+        <f t="shared" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="7"/>
+        <v>0.57738095238095233</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>340</v>
-      </c>
-      <c r="H34" s="1">
+        <v>0.25892857142857145</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>0.58235294117647063</v>
-      </c>
-      <c r="I34" s="1">
-        <f>C34/G34</f>
-        <v>4.1176470588235294E-2</v>
-      </c>
-      <c r="J34" s="1">
-        <f>D34/G34</f>
-        <v>0.25588235294117645</v>
-      </c>
-      <c r="K34" s="1">
-        <f>E34/G34</f>
-        <v>0.10882352941176471</v>
+        <v>0.11011904761904762</v>
       </c>
       <c r="L34" s="1">
-        <f>F34/G34</f>
-        <v>1.1764705882352941E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="B35">
         <f>SUM(B28:B34)</f>
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:G35" si="10">SUM(C28:C34)</f>
+        <f t="shared" ref="C35:G35" si="14">SUM(C28:C34)</f>
         <v>63</v>
       </c>
       <c r="D35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>333</v>
       </c>
       <c r="E35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="F35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="G35">
-        <f t="shared" si="10"/>
-        <v>1487</v>
+        <f t="shared" si="14"/>
+        <v>1472</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2870,15 +5190,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2891,12 +5211,24 @@
     <col min="11" max="11" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="7">
+        <v>41792</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -2913,12 +5245,16 @@
       <c r="K1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1955</v>
       </c>
       <c r="B2">
+        <f t="shared" ref="B2:B25" si="0">L2-F2</f>
         <v>426</v>
       </c>
       <c r="C2" s="1">
@@ -2955,28 +5291,32 @@
       <c r="L2">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1957</v>
       </c>
       <c r="B3">
+        <f t="shared" si="0"/>
         <v>406</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C25" si="0">F3/L3</f>
+        <f t="shared" ref="C3:C26" si="1">F3/L3</f>
         <v>9.1722595078299773E-2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D25" si="1">(G3*2+H3*3+I3*4+J3*5+K3*6)/F3</f>
+        <f t="shared" ref="D3:D26" si="2">(G3*2+H3*3+I3*4+J3*5+K3*6)/F3</f>
         <v>3.8536585365853657</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E34" si="2">(D3-2)*10/3</f>
+        <f t="shared" ref="E3:E34" si="3">(D3-2)*10/3</f>
         <v>6.178861788617886</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="3">SUM(G3:K3)</f>
+        <f t="shared" ref="F3:F25" si="4">SUM(G3:K3)</f>
         <v>41</v>
       </c>
       <c r="G3">
@@ -2997,28 +5337,32 @@
       <c r="L3">
         <v>447</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1959</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
         <v>301</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5256410256410256E-2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1818181818181817</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.2727272727272725</v>
       </c>
       <c r="F4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G4">
@@ -3039,28 +5383,35 @@
       <c r="L4">
         <v>312</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1962</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9230769230769229</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102564097</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G5">
@@ -3081,28 +5432,47 @@
       <c r="L5">
         <v>576</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1967</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6875E-2</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="G6">
@@ -3123,28 +5493,56 @@
       <c r="L6">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1955</v>
+      </c>
+      <c r="U6">
+        <v>426</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>8</v>
+      </c>
+      <c r="X6">
+        <v>12</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1973</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.640625E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8235294117647061</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0784313725490202</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G7">
@@ -3165,28 +5563,53 @@
       <c r="L7">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="T7">
+        <v>1957</v>
+      </c>
+      <c r="U7">
+        <v>406</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>28</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1974</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555545</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G8">
@@ -3207,28 +5630,53 @@
       <c r="L8">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="T8">
+        <v>1959</v>
+      </c>
+      <c r="U8">
+        <v>301</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1975</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>182</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.712041884816754E-2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8888888888888888</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2962962962962967</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G9">
@@ -3249,28 +5697,53 @@
       <c r="L9">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="T9">
+        <v>1962</v>
+      </c>
+      <c r="U9">
+        <v>550</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>16</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1977</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8125E-2</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G10">
@@ -3291,28 +5764,53 @@
       <c r="L10">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="T10">
+        <v>1967</v>
+      </c>
+      <c r="U10">
+        <v>244</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1979</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.625</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.416666666666667</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G11">
@@ -3333,28 +5831,53 @@
       <c r="L11">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="T11">
+        <v>1973</v>
+      </c>
+      <c r="U11">
+        <v>239</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>1981</v>
       </c>
       <c r="B12">
+        <f t="shared" si="0"/>
         <v>176</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.833333333333333</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G12">
@@ -3375,28 +5898,53 @@
       <c r="L12">
         <v>192</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="T12">
+        <v>1974</v>
+      </c>
+      <c r="U12">
+        <v>189</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1983</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3863636363636367E-2</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5384615384615383</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1282051282051277</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="G13">
@@ -3417,28 +5965,53 @@
       <c r="L13">
         <v>352</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="T13">
+        <v>1975</v>
+      </c>
+      <c r="U13">
+        <v>182</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>1987</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7142857142857138E-2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5925925925925926</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3086419753086416</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G14">
@@ -3459,28 +6032,53 @@
       <c r="L14">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="T14">
+        <v>1977</v>
+      </c>
+      <c r="U14">
+        <v>177</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>10</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>147</v>
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.13017751479289941</v>
+        <f t="shared" si="1"/>
+        <v>0.16296296296296298</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0909090909090908</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6363636363636362</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G15">
@@ -3499,30 +6097,55 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>135</v>
+      </c>
+      <c r="T15">
+        <v>1979</v>
+      </c>
+      <c r="U15">
+        <v>184</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>1995</v>
       </c>
       <c r="B16">
-        <v>299</v>
+        <f t="shared" si="0"/>
+        <v>293</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2695924764890276E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3897763578274758E-2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.666666666666667</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G16">
@@ -3541,30 +6164,55 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>313</v>
+      </c>
+      <c r="T16">
+        <v>1981</v>
+      </c>
+      <c r="U16">
+        <v>176</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>1997</v>
       </c>
       <c r="B17">
-        <v>1110</v>
+        <f t="shared" si="0"/>
+        <v>1108</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3402146985962017E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.3540115798180312E-2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8514851485148514</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.1716171617161706</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="G17">
@@ -3583,30 +6231,55 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1209</v>
+      </c>
+      <c r="T17">
+        <v>1983</v>
+      </c>
+      <c r="U17">
+        <v>326</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>14</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>2000</v>
       </c>
       <c r="B18">
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9772079772079771E-2</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8035714285714284</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0119047619047619</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="G18">
@@ -3627,28 +6300,53 @@
       <c r="L18">
         <v>702</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="T18">
+        <v>1987</v>
+      </c>
+      <c r="U18">
+        <v>323</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>8</v>
+      </c>
+      <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>2001</v>
       </c>
       <c r="B19">
-        <v>279</v>
+        <f t="shared" si="0"/>
+        <v>259</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11987381703470032</v>
+        <f t="shared" si="1"/>
+        <v>0.12794612794612795</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.736842105263158</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7894736842105265</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="G19">
@@ -3667,30 +6365,55 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>297</v>
+      </c>
+      <c r="T19">
+        <v>1991</v>
+      </c>
+      <c r="U19">
+        <v>113</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20">
-        <v>1422</v>
+        <f t="shared" si="0"/>
+        <v>1299</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10734463276836158</v>
+        <f t="shared" si="1"/>
+        <v>0.11632653061224489</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9883040935672516</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6276803118908383</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>171</v>
       </c>
       <c r="G20">
@@ -3709,30 +6432,55 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1470</v>
+      </c>
+      <c r="T20">
+        <v>1995</v>
+      </c>
+      <c r="U20">
+        <v>293</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>14</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>1798</v>
+        <f t="shared" si="0"/>
+        <v>1772</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>9.8294884653961884E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.959349593495935E-2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8214285714285716</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0714285714285721</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="G21">
@@ -3751,30 +6499,55 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1968</v>
+      </c>
+      <c r="T21">
+        <v>1997</v>
+      </c>
+      <c r="U21">
+        <v>1108</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>25</v>
+      </c>
+      <c r="X21">
+        <v>63</v>
+      </c>
+      <c r="Y21">
+        <v>12</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>2007</v>
       </c>
       <c r="B22">
-        <v>1339</v>
+        <f t="shared" si="0"/>
+        <v>1338</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12311722331368696</v>
+        <f t="shared" si="1"/>
+        <v>0.12319790301441677</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7074468085106385</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6914893617021285</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>188</v>
       </c>
       <c r="G22">
@@ -3793,30 +6566,55 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1526</v>
+      </c>
+      <c r="T22">
+        <v>2000</v>
+      </c>
+      <c r="U22">
+        <v>646</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>11</v>
+      </c>
+      <c r="X22">
+        <v>45</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>2808</v>
+        <f t="shared" si="0"/>
+        <v>2803</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>9.8265895953757232E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.8423930524284331E-2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7941176470588234</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9803921568627443</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="G23">
@@ -3835,30 +6633,55 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3109</v>
+      </c>
+      <c r="T23">
+        <v>2001</v>
+      </c>
+      <c r="U23">
+        <v>259</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>9</v>
+      </c>
+      <c r="X23">
+        <v>27</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>2011</v>
       </c>
       <c r="B24">
-        <v>3128</v>
+        <f t="shared" si="0"/>
+        <v>2909</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.10933940774487472</v>
+        <f t="shared" si="1"/>
+        <v>0.1166109930154874</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4713541666666665</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9045138888888884</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>384</v>
       </c>
       <c r="G24">
@@ -3877,30 +6700,55 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3293</v>
+      </c>
+      <c r="T24">
+        <v>2003</v>
+      </c>
+      <c r="U24">
+        <v>1299</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>33</v>
+      </c>
+      <c r="X24">
+        <v>99</v>
+      </c>
+      <c r="Y24">
+        <v>35</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>1097</v>
+        <f t="shared" si="0"/>
+        <v>1096</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11958266452648475</v>
+        <f t="shared" si="1"/>
+        <v>0.11967871485943775</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5771812080536911</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2572706935123037</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="G25">
@@ -3919,37 +6767,130 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>1245</v>
+      </c>
+      <c r="T25">
+        <v>2005</v>
+      </c>
+      <c r="U25">
+        <v>1772</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <v>47</v>
+      </c>
+      <c r="X25">
+        <v>125</v>
+      </c>
+      <c r="Y25">
+        <v>20</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="B26">
-        <v>17796</v>
+        <f>L26-F26</f>
+        <v>17359</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6967174738594397E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7108369098712446</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7027896995708147</v>
       </c>
       <c r="F26">
         <f>SUM(F2:F25)</f>
         <v>1864</v>
       </c>
       <c r="G26">
+        <f t="shared" ref="G26:L26" si="5">SUM(G2:G25)</f>
         <v>69</v>
       </c>
       <c r="H26">
+        <f t="shared" si="5"/>
         <v>555</v>
       </c>
       <c r="I26">
+        <f t="shared" si="5"/>
         <v>1088</v>
       </c>
       <c r="J26">
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="K26">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="L26">
-        <v>19660</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <f t="shared" si="5"/>
+        <v>19223</v>
+      </c>
+      <c r="T26">
+        <v>2007</v>
+      </c>
+      <c r="U26">
+        <v>1338</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>59</v>
+      </c>
+      <c r="X26">
+        <v>113</v>
+      </c>
+      <c r="Y26">
+        <v>12</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="T27">
+        <v>2009</v>
+      </c>
+      <c r="U27">
+        <v>2803</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27">
+        <v>85</v>
+      </c>
+      <c r="X27">
+        <v>184</v>
+      </c>
+      <c r="Y27">
+        <v>32</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3962,43 +6903,67 @@
         <v>6.1309030654515324E-2</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:D34" si="4">(G28*2+H28*3+I28*4+J28*5+K28*6)/F28</f>
+        <f t="shared" ref="D28:D34" si="6">(G28*2+H28*3+I28*4+J28*5+K28*6)/F28</f>
         <v>3.8243243243243241</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0810810810810807</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:K28" si="5">SUM(F2:F4)</f>
+        <f t="shared" ref="F28:K28" si="7">SUM(F2:F4)</f>
         <v>74</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="J28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L28">
         <f>SUM(L2:L4)</f>
         <v>1207</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="T28">
+        <v>2011</v>
+      </c>
+      <c r="U28">
+        <v>2909</v>
+      </c>
+      <c r="V28">
+        <v>41</v>
+      </c>
+      <c r="W28">
+        <v>135</v>
+      </c>
+      <c r="X28">
+        <v>194</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -4007,47 +6972,71 @@
         <v>794</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C34" si="6">F29/L29</f>
+        <f t="shared" ref="C29:C34" si="8">F29/L29</f>
         <v>4.567307692307692E-2</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8684210526315788</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2280701754385959</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:K29" si="7">SUM(F5:F6)</f>
+        <f t="shared" ref="F29:K29" si="9">SUM(F5:F6)</f>
         <v>38</v>
       </c>
       <c r="G29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L29">
         <f>SUM(L5:L6)</f>
         <v>832</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="T29">
+        <v>2013</v>
+      </c>
+      <c r="U29">
+        <v>1096</v>
+      </c>
+      <c r="V29">
+        <v>5</v>
+      </c>
+      <c r="W29">
+        <v>60</v>
+      </c>
+      <c r="X29">
+        <v>77</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -4056,47 +7045,71 @@
         <v>971</v>
       </c>
       <c r="C30" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0830889540566963E-2</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="6"/>
-        <v>5.0830889540566963E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="4"/>
         <v>3.7884615384615383</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.9615384615384608</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:K30" si="8">SUM(F7:F11)</f>
+        <f t="shared" ref="F30:K30" si="10">SUM(F7:F11)</f>
         <v>52</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="J30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L30">
         <f>SUM(L7:L11)</f>
         <v>1023</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>17359</v>
+      </c>
+      <c r="V30">
+        <v>69</v>
+      </c>
+      <c r="W30">
+        <v>555</v>
+      </c>
+      <c r="X30">
+        <v>1088</v>
+      </c>
+      <c r="Y30">
+        <v>150</v>
+      </c>
+      <c r="Z30">
+        <v>2</v>
+      </c>
+      <c r="AA30">
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -4105,39 +7118,39 @@
         <v>825</v>
       </c>
       <c r="C31" s="1">
+        <f t="shared" si="8"/>
+        <v>7.7181208053691275E-2</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="6"/>
-        <v>7.7181208053691275E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="4"/>
         <v>3.6086956521739131</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3623188405797109</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:K31" si="9">SUM(F12:F14)</f>
+        <f t="shared" ref="F31:K31" si="11">SUM(F12:F14)</f>
         <v>69</v>
       </c>
       <c r="G31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="I31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="J31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="K31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L31">
@@ -4145,53 +7158,53 @@
         <v>894</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32">
         <f>SUM(B15:B17)</f>
-        <v>1556</v>
+        <v>1514</v>
       </c>
       <c r="C32" s="1">
+        <f t="shared" si="8"/>
+        <v>8.630054315027158E-2</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="6"/>
-        <v>8.4167157151265451E-2</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="4"/>
         <v>3.7132867132867133</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.7109557109557114</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:K32" si="10">SUM(F15:F17)</f>
+        <f t="shared" ref="F32:K32" si="12">SUM(F15:F17)</f>
         <v>143</v>
       </c>
       <c r="G32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="H32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="J32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="K32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L32">
         <f>SUM(L15:L17)</f>
-        <v>1699</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4200,47 +7213,47 @@
       </c>
       <c r="B33">
         <f>SUM(B18:B23)</f>
-        <v>8292</v>
+        <v>8117</v>
       </c>
       <c r="C33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1052689594356261</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="6"/>
-        <v>0.10327673840164378</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="4"/>
         <v>3.8157068062827224</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.0523560209424083</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:K33" si="11">SUM(F18:F23)</f>
+        <f t="shared" ref="F33:K33" si="13">SUM(F18:F23)</f>
         <v>955</v>
       </c>
       <c r="G33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>244</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>593</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L33">
         <f>SUM(L18:L23)</f>
-        <v>9247</v>
+        <v>9072</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4249,83 +7262,88 @@
       </c>
       <c r="B34">
         <f>SUM(B24:B25)</f>
-        <v>4225</v>
+        <v>4005</v>
       </c>
       <c r="C34" s="1">
+        <f t="shared" si="8"/>
+        <v>0.11745262230057293</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="6"/>
-        <v>0.11202185792349727</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="4"/>
         <v>3.5009380863039401</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0031269543464667</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:K34" si="12">SUM(F24:F25)</f>
+        <f t="shared" ref="F34:K34" si="14">SUM(F24:F25)</f>
         <v>533</v>
       </c>
       <c r="G34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="H34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>195</v>
       </c>
       <c r="I34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>271</v>
       </c>
       <c r="J34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="K34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L34">
         <f>SUM(L24:L25)</f>
-        <v>4758</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="B35">
         <f>SUM(B28:B34)</f>
-        <v>17796</v>
+        <v>17359</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35">
-        <f t="shared" ref="F35:K35" si="13">SUM(F28:F34)</f>
+        <f t="shared" ref="F35:L35" si="15">SUM(F28:F34)</f>
         <v>1864</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="H35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>555</v>
       </c>
       <c r="I35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1088</v>
       </c>
       <c r="J35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="K35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="L35">
-        <f>SUM(L28:L34)</f>
-        <v>19660</v>
+        <f t="shared" si="15"/>
+        <v>19223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4333,158 +7351,142 @@
         <v>2</v>
       </c>
       <c r="B38">
-        <v>1133</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>1207</v>
       </c>
-      <c r="D38">
-        <v>74</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38" s="1">
+      <c r="D38" s="1">
         <v>6.1309030654515324E-2</v>
       </c>
-      <c r="G38" s="1">
+      <c r="E38" s="1">
         <v>3.8243243243243241</v>
       </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39">
-        <v>794</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>832</v>
       </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39" s="1">
+      <c r="D39" s="1">
         <v>4.567307692307692E-2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="E39" s="1">
         <v>3.8684210526315788</v>
       </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40">
-        <v>971</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>1023</v>
       </c>
-      <c r="D40">
-        <v>52</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40" s="1">
+      <c r="D40" s="1">
         <v>5.0830889540566963E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="E40" s="1">
         <v>3.7884615384615383</v>
       </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>5</v>
       </c>
       <c r="B41">
-        <v>825</v>
+        <v>69</v>
       </c>
       <c r="C41">
         <v>894</v>
       </c>
-      <c r="D41">
-        <v>69</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41" s="1">
+      <c r="D41" s="1">
         <v>7.7181208053691275E-2</v>
       </c>
-      <c r="G41" s="1">
+      <c r="E41" s="1">
         <v>3.6086956521739131</v>
       </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>6</v>
       </c>
       <c r="B42">
-        <v>1556</v>
+        <v>143</v>
       </c>
       <c r="C42">
-        <v>1699</v>
-      </c>
-      <c r="D42">
-        <v>143</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42" s="1">
-        <v>8.4167157151265451E-2</v>
-      </c>
-      <c r="G42" s="1">
+        <v>1657</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.630054315027158E-2</v>
+      </c>
+      <c r="E42" s="1">
         <v>3.7132867132867133</v>
       </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>8292</v>
+        <v>955</v>
       </c>
       <c r="C43">
-        <v>9247</v>
-      </c>
-      <c r="D43">
-        <v>955</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" s="1">
-        <v>0.10327673840164378</v>
-      </c>
-      <c r="G43" s="1">
+        <v>9072</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.1052689594356261</v>
+      </c>
+      <c r="E43" s="1">
         <v>3.8157068062827224</v>
       </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
-        <v>4225</v>
+        <v>533</v>
       </c>
       <c r="C44">
-        <v>4758</v>
-      </c>
-      <c r="D44">
-        <v>533</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" s="1">
-        <v>0.11202185792349727</v>
-      </c>
-      <c r="G44" s="1">
+        <v>4538</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.11745262230057293</v>
+      </c>
+      <c r="E44" s="1">
         <v>3.5009380863039401</v>
       </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:12">
       <c r="B45">
-        <v>17796</v>
+        <v>1864</v>
       </c>
       <c r="C45">
-        <v>19660</v>
-      </c>
-      <c r="D45">
-        <v>1864</v>
-      </c>
+        <v>19223</v>
+      </c>
+      <c r="D45"/>
       <c r="E45"/>
     </row>
   </sheetData>
@@ -4498,403 +7500,476 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E35"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5">
         <v>1955</v>
       </c>
       <c r="B2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+        <v>440</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" ref="E2:E27" si="0">C2/D2</f>
+        <v>0.45227272727272727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
         <v>1957</v>
       </c>
       <c r="B3">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C3">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D35" si="0">SUM(B3:C3)</f>
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+        <v>444</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49774774774774777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
         <v>1959</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+        <v>310</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45483870967741935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
         <v>1962</v>
       </c>
       <c r="B5">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="C5">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+        <v>575</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41043478260869565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
         <v>1967</v>
       </c>
       <c r="B6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49609375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
         <v>1973</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+        <v>255</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51764705882352946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
         <v>1974</v>
       </c>
       <c r="B8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+        <v>191</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51832460732984298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
         <v>1975</v>
       </c>
       <c r="B9">
+        <v>87</v>
+      </c>
+      <c r="C9">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>191</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54450261780104714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>1977</v>
+      </c>
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10">
         <v>88</v>
       </c>
-      <c r="C9">
-        <v>103</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="D10">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>1977</v>
-      </c>
-      <c r="B10">
-        <v>108</v>
-      </c>
-      <c r="C10">
-        <v>84</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4607329842931937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
         <v>1979</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>188</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53191489361702127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
         <v>106</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>1981</v>
-      </c>
-      <c r="B12">
-        <v>96</v>
-      </c>
-      <c r="C12">
-        <v>96</v>
-      </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+        <v>186</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56989247311827962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
         <v>1983</v>
       </c>
       <c r="B13">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C13">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+        <v>351</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5669515669515669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
         <v>1987</v>
       </c>
       <c r="B14">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="C14">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52857142857142858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
         <v>1991</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+        <v>134</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42537313432835822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
         <v>1995</v>
       </c>
       <c r="B16">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C16">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>319</v>
+        <v>313</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43130990415335463</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>1997</v>
       </c>
       <c r="B17">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="C17">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1211</v>
+        <v>1206</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5265339966832504</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>2000</v>
       </c>
       <c r="B18">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C18">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>702</v>
+        <v>700</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52857142857142858</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>2001</v>
       </c>
       <c r="B19">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C19">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>317</v>
+        <v>296</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48310810810810811</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>2003</v>
       </c>
       <c r="B20">
-        <v>800</v>
+        <v>684</v>
       </c>
       <c r="C20">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1593</v>
+        <v>1471</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53501019714479947</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>2005</v>
       </c>
       <c r="B21">
-        <v>1040</v>
+        <v>997</v>
       </c>
       <c r="C21">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1994</v>
+        <v>1962</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49184505606523954</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>2007</v>
       </c>
       <c r="B22">
-        <v>837</v>
+        <v>664</v>
       </c>
       <c r="C22">
-        <v>690</v>
+        <v>862</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1527</v>
+        <v>1526</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56487549148099603</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>2009</v>
       </c>
       <c r="B23">
-        <v>1553</v>
+        <v>1452</v>
       </c>
       <c r="C23">
-        <v>1561</v>
+        <v>1657</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>3114</v>
+        <v>3109</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53296880025731741</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>2011</v>
       </c>
       <c r="B24">
-        <v>1938</v>
+        <v>1706</v>
       </c>
       <c r="C24">
-        <v>1574</v>
+        <v>1605</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3512</v>
+        <v>3311</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48474781032920566</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>2013</v>
       </c>
       <c r="B25">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="C25">
-        <v>619</v>
+        <v>649</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1246</v>
+        <v>1242</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52254428341384862</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26">
-        <v>10343</v>
+        <v>9396</v>
       </c>
       <c r="C26">
-        <v>9317</v>
+        <v>9802</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>19660</v>
+        <v>19198</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4903,19 +7978,19 @@
       </c>
       <c r="B28">
         <f>SUM(B2:B4)</f>
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="C28">
         <f>SUM(C2:C4)</f>
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>1207</v>
+        <f>SUM(B28:C28)</f>
+        <v>1194</v>
       </c>
       <c r="E28" s="1">
-        <f>B28/D28</f>
-        <v>0.4971002485501243</v>
+        <f>C28/D28</f>
+        <v>0.46984924623115576</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4924,19 +7999,19 @@
       </c>
       <c r="B29">
         <f>SUM(B5:B6)</f>
-        <v>542</v>
+        <v>468</v>
       </c>
       <c r="C29">
         <f>SUM(C5:C6)</f>
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>832</v>
+        <f t="shared" ref="D29:D34" si="1">SUM(B29:C29)</f>
+        <v>831</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E35" si="1">B29/D29</f>
-        <v>0.65144230769230771</v>
+        <f t="shared" ref="E29:E34" si="2">C29/D29</f>
+        <v>0.43682310469314078</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4945,19 +8020,19 @@
       </c>
       <c r="B30">
         <f>SUM(B7:B11)</f>
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C30">
         <f>SUM(C7:C11)</f>
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1023</v>
+        <f t="shared" si="1"/>
+        <v>1016</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>0.48093841642228741</v>
+        <f t="shared" si="2"/>
+        <v>0.51476377952755903</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4966,19 +8041,19 @@
       </c>
       <c r="B31">
         <f>SUM(B12:B14)</f>
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="C31">
         <f>SUM(C12:C14)</f>
-        <v>392</v>
+        <v>490</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>894</v>
+        <f t="shared" si="1"/>
+        <v>887</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>0.56152125279642062</v>
+        <f t="shared" si="2"/>
+        <v>0.55242390078917702</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4987,19 +8062,19 @@
       </c>
       <c r="B32">
         <f>SUM(B15:B17)</f>
-        <v>902</v>
+        <v>826</v>
       </c>
       <c r="C32">
         <f>SUM(C15:C17)</f>
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>1699</v>
+        <f t="shared" si="1"/>
+        <v>1653</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>0.53090052972336665</v>
+        <f t="shared" si="2"/>
+        <v>0.500302480338778</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5008,19 +8083,19 @@
       </c>
       <c r="B33">
         <f>SUM(B18:B23)</f>
-        <v>4740</v>
+        <v>4280</v>
       </c>
       <c r="C33">
         <f>SUM(C18:C23)</f>
-        <v>4507</v>
+        <v>4784</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>9247</v>
+        <f t="shared" si="1"/>
+        <v>9064</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.51259868065318481</v>
+        <f t="shared" si="2"/>
+        <v>0.527802294792586</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5029,40 +8104,33 @@
       </c>
       <c r="B34">
         <f>SUM(B24:B25)</f>
-        <v>2565</v>
+        <v>2299</v>
       </c>
       <c r="C34">
         <f>SUM(C24:C25)</f>
-        <v>2193</v>
+        <v>2254</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>4758</v>
+        <f t="shared" si="1"/>
+        <v>4553</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5390920554854981</v>
+        <f t="shared" si="2"/>
+        <v>0.49505820338238526</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B35">
         <f>SUM(B28:B34)</f>
-        <v>10343</v>
+        <v>9396</v>
       </c>
       <c r="C35">
-        <f>SUM(C28:C34)</f>
-        <v>9317</v>
+        <f t="shared" ref="C35:D35" si="3">SUM(C28:C34)</f>
+        <v>9802</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>19660</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52609359104781284</v>
+        <f t="shared" si="3"/>
+        <v>19198</v>
       </c>
     </row>
   </sheetData>
@@ -5074,225 +8142,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>448</v>
-      </c>
-      <c r="I2">
-        <v>447</v>
-      </c>
-      <c r="K2">
-        <v>312</v>
-      </c>
-      <c r="L2">
-        <f>SUM(B2:K2)</f>
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>576</v>
-      </c>
-      <c r="I3">
-        <v>256</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L8" si="0">SUM(B3:K3)</f>
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>256</v>
-      </c>
-      <c r="F4">
-        <v>192</v>
-      </c>
-      <c r="G4">
-        <v>191</v>
-      </c>
-      <c r="I4">
-        <v>192</v>
-      </c>
-      <c r="K4">
-        <v>192</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>192</v>
-      </c>
-      <c r="E5">
-        <v>352</v>
-      </c>
-      <c r="I5">
-        <v>350</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>169</v>
-      </c>
-      <c r="G6">
-        <v>319</v>
-      </c>
-      <c r="I6">
-        <v>1211</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>702</v>
-      </c>
-      <c r="C7">
-        <v>317</v>
-      </c>
-      <c r="E7">
-        <v>1593</v>
-      </c>
-      <c r="G7">
-        <v>1994</v>
-      </c>
-      <c r="I7">
-        <v>1527</v>
-      </c>
-      <c r="K7">
-        <v>3114</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>9247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3512</v>
-      </c>
-      <c r="E8">
-        <v>1246</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>4758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="L9">
-        <f>SUM(L2:L8)</f>
-        <v>19660</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="L10">
-        <v>19660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19540" windowHeight="12180" tabRatio="632" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19720" windowHeight="12180" tabRatio="632" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hands" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>Total</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>For copying into Latex: values</t>
   </si>
+  <si>
+    <t>Year * contested_auction Crosstabulation</t>
+  </si>
+  <si>
+    <t>contested_auction</t>
+  </si>
 </sst>
 </file>
 
@@ -180,8 +186,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,7 +352,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -416,6 +426,8 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -489,6 +501,8 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3400,10 +3414,10 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5194,7 +5208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7502,19 +7516,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7529,7 +7544,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="5">
         <v>1955</v>
       </c>
@@ -7540,6 +7555,7 @@
         <v>199</v>
       </c>
       <c r="D2">
+        <f>B2+C2</f>
         <v>440</v>
       </c>
       <c r="E2" s="1">
@@ -7547,7 +7563,7 @@
         <v>0.45227272727272727</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1957</v>
       </c>
@@ -7558,6 +7574,7 @@
         <v>221</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D25" si="1">B3+C3</f>
         <v>444</v>
       </c>
       <c r="E3" s="1">
@@ -7565,7 +7582,7 @@
         <v>0.49774774774774777</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1959</v>
       </c>
@@ -7576,6 +7593,7 @@
         <v>141</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
       <c r="E4" s="1">
@@ -7583,7 +7601,7 @@
         <v>0.45483870967741935</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1962</v>
       </c>
@@ -7594,6 +7612,7 @@
         <v>236</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
         <v>575</v>
       </c>
       <c r="E5" s="1">
@@ -7601,7 +7620,7 @@
         <v>0.41043478260869565</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1967</v>
       </c>
@@ -7612,6 +7631,7 @@
         <v>127</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="E6" s="1">
@@ -7619,7 +7639,7 @@
         <v>0.49609375</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1973</v>
       </c>
@@ -7630,6 +7650,7 @@
         <v>132</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="E7" s="1">
@@ -7637,7 +7658,7 @@
         <v>0.51764705882352946</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1974</v>
       </c>
@@ -7648,6 +7669,7 @@
         <v>99</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="E8" s="1">
@@ -7655,7 +7677,7 @@
         <v>0.51832460732984298</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1975</v>
       </c>
@@ -7666,6 +7688,7 @@
         <v>104</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="E9" s="1">
@@ -7673,7 +7696,7 @@
         <v>0.54450261780104714</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1977</v>
       </c>
@@ -7684,6 +7707,7 @@
         <v>88</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
         <v>191</v>
       </c>
       <c r="E10" s="1">
@@ -7691,7 +7715,7 @@
         <v>0.4607329842931937</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1979</v>
       </c>
@@ -7702,6 +7726,7 @@
         <v>100</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
         <v>188</v>
       </c>
       <c r="E11" s="1">
@@ -7709,7 +7734,7 @@
         <v>0.53191489361702127</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1981</v>
       </c>
@@ -7720,6 +7745,7 @@
         <v>106</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="E12" s="1">
@@ -7727,7 +7753,7 @@
         <v>0.56989247311827962</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1983</v>
       </c>
@@ -7738,6 +7764,7 @@
         <v>199</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
         <v>351</v>
       </c>
       <c r="E13" s="1">
@@ -7745,7 +7772,7 @@
         <v>0.5669515669515669</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1987</v>
       </c>
@@ -7756,6 +7783,7 @@
         <v>185</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="E14" s="1">
@@ -7763,7 +7791,7 @@
         <v>0.52857142857142858</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1991</v>
       </c>
@@ -7774,6 +7802,7 @@
         <v>57</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="E15" s="1">
@@ -7781,25 +7810,29 @@
         <v>0.42537313432835822</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1995</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>135</v>
       </c>
       <c r="D16">
-        <v>313</v>
+        <f t="shared" si="1"/>
+        <v>312</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>0.43130990415335463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.43269230769230771</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="5">
         <v>1997</v>
       </c>
@@ -7807,17 +7840,21 @@
         <v>571</v>
       </c>
       <c r="C17">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D17">
-        <v>1206</v>
+        <f t="shared" si="1"/>
+        <v>1204</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>0.5265339966832504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.52574750830564787</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="5">
         <v>2000</v>
       </c>
@@ -7828,14 +7865,21 @@
         <v>370</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>0.52857142857142858</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="5">
         <v>2001</v>
       </c>
@@ -7846,14 +7890,21 @@
         <v>143</v>
       </c>
       <c r="D19">
+        <f t="shared" si="1"/>
         <v>296</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>0.48310810810810811</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -7861,17 +7912,33 @@
         <v>684</v>
       </c>
       <c r="C20">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D20">
-        <v>1471</v>
+        <f t="shared" si="1"/>
+        <v>1470</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>0.53501019714479947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.53469387755102038</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1955</v>
+      </c>
+      <c r="M20">
+        <v>241</v>
+      </c>
+      <c r="N20">
+        <v>199</v>
+      </c>
+      <c r="O20">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="5">
         <v>2005</v>
       </c>
@@ -7882,14 +7949,27 @@
         <v>965</v>
       </c>
       <c r="D21">
+        <f t="shared" si="1"/>
         <v>1962</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>0.49184505606523954</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="L21">
+        <v>1957</v>
+      </c>
+      <c r="M21">
+        <v>223</v>
+      </c>
+      <c r="N21">
+        <v>221</v>
+      </c>
+      <c r="O21">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="5">
         <v>2007</v>
       </c>
@@ -7900,14 +7980,27 @@
         <v>862</v>
       </c>
       <c r="D22">
+        <f t="shared" si="1"/>
         <v>1526</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>0.56487549148099603</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="L22">
+        <v>1959</v>
+      </c>
+      <c r="M22">
+        <v>169</v>
+      </c>
+      <c r="N22">
+        <v>141</v>
+      </c>
+      <c r="O22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="5">
         <v>2009</v>
       </c>
@@ -7918,32 +8011,58 @@
         <v>1657</v>
       </c>
       <c r="D23">
+        <f t="shared" si="1"/>
         <v>3109</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>0.53296880025731741</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="L23">
+        <v>1962</v>
+      </c>
+      <c r="M23">
+        <v>339</v>
+      </c>
+      <c r="N23">
+        <v>236</v>
+      </c>
+      <c r="O23">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="5">
         <v>2011</v>
       </c>
       <c r="B24">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="C24">
-        <v>1605</v>
+        <v>1591</v>
       </c>
       <c r="D24">
-        <v>3311</v>
+        <f t="shared" si="1"/>
+        <v>3289</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>0.48474781032920566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.48373365764670112</v>
+      </c>
+      <c r="L24">
+        <v>1967</v>
+      </c>
+      <c r="M24">
+        <v>129</v>
+      </c>
+      <c r="N24">
+        <v>127</v>
+      </c>
+      <c r="O24">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="5">
         <v>2013</v>
       </c>
@@ -7954,25 +8073,87 @@
         <v>649</v>
       </c>
       <c r="D25">
+        <f t="shared" si="1"/>
         <v>1242</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>0.52254428341384862</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25">
+        <v>-1.0747821</v>
+      </c>
+      <c r="H25">
+        <v>1955</v>
+      </c>
+      <c r="I25">
+        <f>G25+H25*G26</f>
+        <v>0.47553289999999993</v>
+      </c>
+      <c r="L25">
+        <v>1973</v>
+      </c>
+      <c r="M25">
+        <v>123</v>
+      </c>
+      <c r="N25">
+        <v>132</v>
+      </c>
+      <c r="O25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="B26">
-        <v>9396</v>
+        <f>SUM(B2:B25)</f>
+        <v>9387</v>
       </c>
       <c r="C26">
-        <v>9802</v>
+        <f t="shared" ref="C26:D26" si="2">SUM(C2:C25)</f>
+        <v>9785</v>
       </c>
       <c r="D26">
-        <v>19198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>19172</v>
+      </c>
+      <c r="G26">
+        <v>7.9299999999999998E-4</v>
+      </c>
+      <c r="H26">
+        <v>2013</v>
+      </c>
+      <c r="I26">
+        <f>G25+H26*G26</f>
+        <v>0.52152690000000002</v>
+      </c>
+      <c r="L26">
+        <v>1974</v>
+      </c>
+      <c r="M26">
+        <v>92</v>
+      </c>
+      <c r="N26">
+        <v>99</v>
+      </c>
+      <c r="O26">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="L27">
+        <v>1975</v>
+      </c>
+      <c r="M27">
+        <v>87</v>
+      </c>
+      <c r="N27">
+        <v>104</v>
+      </c>
+      <c r="O27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -7992,8 +8173,20 @@
         <f>C28/D28</f>
         <v>0.46984924623115576</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="L28">
+        <v>1977</v>
+      </c>
+      <c r="M28">
+        <v>103</v>
+      </c>
+      <c r="N28">
+        <v>88</v>
+      </c>
+      <c r="O28">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -8006,15 +8199,27 @@
         <v>363</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D34" si="1">SUM(B29:C29)</f>
+        <f t="shared" ref="D29:D34" si="3">SUM(B29:C29)</f>
         <v>831</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E34" si="2">C29/D29</f>
+        <f t="shared" ref="E29:E34" si="4">C29/D29</f>
         <v>0.43682310469314078</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="L29">
+        <v>1979</v>
+      </c>
+      <c r="M29">
+        <v>88</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="O29">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -8027,15 +8232,27 @@
         <v>523</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1016</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51476377952755903</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="L30">
+        <v>1981</v>
+      </c>
+      <c r="M30">
+        <v>80</v>
+      </c>
+      <c r="N30">
+        <v>106</v>
+      </c>
+      <c r="O30">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -8048,36 +8265,60 @@
         <v>490</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>887</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.55242390078917702</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="L31">
+        <v>1983</v>
+      </c>
+      <c r="M31">
+        <v>152</v>
+      </c>
+      <c r="N31">
+        <v>199</v>
+      </c>
+      <c r="O31">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32">
         <f>SUM(B15:B17)</f>
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C32">
         <f>SUM(C15:C17)</f>
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>1653</v>
+        <f t="shared" si="3"/>
+        <v>1650</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.500302480338778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>1987</v>
+      </c>
+      <c r="M32">
+        <v>165</v>
+      </c>
+      <c r="N32">
+        <v>185</v>
+      </c>
+      <c r="O32">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -8087,50 +8328,212 @@
       </c>
       <c r="C33">
         <f>SUM(C18:C23)</f>
-        <v>4784</v>
+        <v>4783</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>9064</v>
+        <f t="shared" si="3"/>
+        <v>9063</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.527802294792586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>0.52775019309279492</v>
+      </c>
+      <c r="L33">
+        <v>1991</v>
+      </c>
+      <c r="M33">
+        <v>77</v>
+      </c>
+      <c r="N33">
+        <v>57</v>
+      </c>
+      <c r="O33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B34">
         <f>SUM(B24:B25)</f>
-        <v>2299</v>
+        <v>2291</v>
       </c>
       <c r="C34">
         <f>SUM(C24:C25)</f>
-        <v>2254</v>
+        <v>2240</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>4553</v>
+        <f t="shared" si="3"/>
+        <v>4531</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49505820338238526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f t="shared" si="4"/>
+        <v>0.49437210328845732</v>
+      </c>
+      <c r="L34">
+        <v>1995</v>
+      </c>
+      <c r="M34">
+        <v>177</v>
+      </c>
+      <c r="N34">
+        <v>135</v>
+      </c>
+      <c r="O34">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="B35">
         <f>SUM(B28:B34)</f>
-        <v>9396</v>
+        <v>9387</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:D35" si="3">SUM(C28:C34)</f>
-        <v>9802</v>
+        <f t="shared" ref="C35:D35" si="5">SUM(C28:C34)</f>
+        <v>9785</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>19198</v>
+        <f t="shared" si="5"/>
+        <v>19172</v>
+      </c>
+      <c r="L35">
+        <v>1997</v>
+      </c>
+      <c r="M35">
+        <v>571</v>
+      </c>
+      <c r="N35">
+        <v>633</v>
+      </c>
+      <c r="O35">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="L36">
+        <v>2000</v>
+      </c>
+      <c r="M36">
+        <v>330</v>
+      </c>
+      <c r="N36">
+        <v>370</v>
+      </c>
+      <c r="O36">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="L37">
+        <v>2001</v>
+      </c>
+      <c r="M37">
+        <v>153</v>
+      </c>
+      <c r="N37">
+        <v>143</v>
+      </c>
+      <c r="O37">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="L38">
+        <v>2003</v>
+      </c>
+      <c r="M38">
+        <v>684</v>
+      </c>
+      <c r="N38">
+        <v>786</v>
+      </c>
+      <c r="O38">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="L39">
+        <v>2005</v>
+      </c>
+      <c r="M39">
+        <v>997</v>
+      </c>
+      <c r="N39">
+        <v>965</v>
+      </c>
+      <c r="O39">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="L40">
+        <v>2007</v>
+      </c>
+      <c r="M40">
+        <v>664</v>
+      </c>
+      <c r="N40">
+        <v>862</v>
+      </c>
+      <c r="O40">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="L41">
+        <v>2009</v>
+      </c>
+      <c r="M41">
+        <v>1452</v>
+      </c>
+      <c r="N41">
+        <v>1657</v>
+      </c>
+      <c r="O41">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="L42">
+        <v>2011</v>
+      </c>
+      <c r="M42">
+        <v>1698</v>
+      </c>
+      <c r="N42">
+        <v>1591</v>
+      </c>
+      <c r="O42">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="L43">
+        <v>2013</v>
+      </c>
+      <c r="M43">
+        <v>593</v>
+      </c>
+      <c r="N43">
+        <v>649</v>
+      </c>
+      <c r="O43">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="K44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>9387</v>
+      </c>
+      <c r="N44">
+        <v>9785</v>
+      </c>
+      <c r="O44">
+        <v>19172</v>
       </c>
     </row>
   </sheetData>
